--- a/[5] Tester Results/TEST_SEX_PARAMETRIC.xlsx
+++ b/[5] Tester Results/TEST_SEX_PARAMETRIC.xlsx
@@ -497,19 +497,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-4.840029361671452</v>
+        <v>1.965198102174601</v>
       </c>
       <c r="D2" t="n">
-        <v>7.697608839509595e-06</v>
+        <v>0.05466246786059524</v>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.9584686360787898</v>
+        <v>0.389167214466121</v>
       </c>
       <c r="G2" t="n">
-        <v>4.729214568066631e-06</v>
+        <v>0.05216543166850363</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>-0.9941176470588218</v>
+        <v>0.09346405228758181</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -537,19 +537,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2.248310417035032</v>
+        <v>-8.109468710705281</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02845826328409018</v>
+        <v>9.309849748618311e-12</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4452318070552199</v>
+        <v>-1.60591410375021</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02675123397826529</v>
+        <v>1.29485311362032e-12</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>0.9496732026143775</v>
+        <v>-5.28300653594771</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -577,19 +577,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4.030096965190786</v>
+        <v>-8.28610145599726</v>
       </c>
       <c r="D4" t="n">
-        <v>0.000162937693693207</v>
+        <v>4.210151482702333e-12</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7980781216082817</v>
+        <v>-1.640892599502226</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0001088865933784877</v>
+        <v>5.228040222959862e-13</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>1.943790849673203</v>
+        <v>-5.376470588235293</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -617,16 +617,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15.85772575646931</v>
+        <v>16.09431969546866</v>
       </c>
       <c r="D5" t="n">
-        <v>3.073460920720443e-25</v>
+        <v>3.524874757916437e-24</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>3.140297638993201</v>
+        <v>3.187150220469878</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>61.05522875816992</v>
+        <v>28.69379084967321</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -657,16 +657,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15.97482047871221</v>
+        <v>15.97755748763471</v>
       </c>
       <c r="D6" t="n">
-        <v>1.481375450215811e-25</v>
+        <v>3.854158428953594e-24</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>3.16348584929807</v>
+        <v>3.164027857830015</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>60.251454248366</v>
+        <v>27.27579681348978</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -697,16 +697,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>15.97821774314405</v>
+        <v>15.2037165265115</v>
       </c>
       <c r="D7" t="n">
-        <v>1.300955312604903e-25</v>
+        <v>2.830348522492848e-23</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>3.164158607904077</v>
+        <v>3.010784512567843</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>55.37541830065359</v>
+        <v>25.03027655123982</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>14.65487061569718</v>
+        <v>16.55225176932407</v>
       </c>
       <c r="D8" t="n">
-        <v>5.703875366673659e-23</v>
+        <v>5.43496484190397e-25</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>2.902096826554726</v>
+        <v>3.277834284025508</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -757,7 +757,7 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>25.15996405228759</v>
+        <v>10.00032679738562</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -777,19 +777,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-5.615473586926813</v>
+        <v>7.64260839306666</v>
       </c>
       <c r="D9" t="n">
-        <v>3.573522587262278e-07</v>
+        <v>1.530186022331522e-10</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.112029474949199</v>
+        <v>1.513461984465573</v>
       </c>
       <c r="G9" t="n">
-        <v>1.764238988233302e-07</v>
+        <v>1.31999966512808e-11</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -797,7 +797,7 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>-20.76592810457518</v>
+        <v>14.234954248366</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -817,16 +817,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>12.17237910785997</v>
+        <v>15.90807182397458</v>
       </c>
       <c r="D10" t="n">
-        <v>6.814636616553825e-19</v>
+        <v>1.294060728858688e-22</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>2.41049025316563</v>
+        <v>3.150267646000978</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>5821.583169934645</v>
+        <v>1564.353137254902</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -857,19 +857,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.146289485448333</v>
+        <v>-0.3812464258315104</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2548666935469139</v>
+        <v>0.7039786637527163</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2269991435113327</v>
+        <v>-0.0754980423611418</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2544109311142174</v>
+        <v>0.7038292089242721</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>0.258823529411762</v>
+        <v>-0.007843137254901933</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -897,19 +897,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.8753514680987168</v>
+        <v>-8.842640276173753</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3847460929062698</v>
+        <v>3.621026512150495e-14</v>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.1733454210757939</v>
+        <v>-1.751103708576005</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3834803754869427</v>
+        <v>7.771561172376096e-15</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>-0.5830065359477139</v>
+        <v>-5.951633986928098</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -937,19 +937,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-1.104424967118307</v>
+        <v>-8.819895966394006</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2732507424196909</v>
+        <v>4.02293194107336e-14</v>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.2187087335188572</v>
+        <v>-1.746599664086981</v>
       </c>
       <c r="G13" t="n">
-        <v>0.272059197596024</v>
+        <v>1.176836406102666e-14</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>-0.8418300653594777</v>
+        <v>-5.943790849673203</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -977,19 +977,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>8.301921747203941</v>
+        <v>11.14206713475105</v>
       </c>
       <c r="D14" t="n">
-        <v>1.172934771593645e-11</v>
+        <v>1.668015789715233e-16</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>1.64402548399572</v>
+        <v>2.206458079430981</v>
       </c>
       <c r="G14" t="n">
-        <v>4.809486142676178e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>83.98137254901961</v>
+        <v>46.30980392156863</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1017,19 +1017,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>8.344345746471381</v>
+        <v>10.90069335281275</v>
       </c>
       <c r="D15" t="n">
-        <v>9.987295131324331e-12</v>
+        <v>3.496987943302613e-16</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>1.6524266877233</v>
+        <v>2.158658948005941</v>
       </c>
       <c r="G15" t="n">
-        <v>3.843592111252292e-13</v>
+        <v>0</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
         </is>
       </c>
       <c r="I15" t="n">
-        <v>83.49800000000003</v>
+        <v>43.97995259121718</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1057,19 +1057,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>8.140038501875255</v>
+        <v>10.78519220579126</v>
       </c>
       <c r="D16" t="n">
-        <v>2.220568088546417e-11</v>
+        <v>2.911300041376755e-16</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>1.611967824473462</v>
+        <v>2.13578631261908</v>
       </c>
       <c r="G16" t="n">
-        <v>1.108668712390681e-12</v>
+        <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="I16" t="n">
-        <v>75.64086601307189</v>
+        <v>40.15002930096622</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1097,19 +1097,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>6.439606033007182</v>
+        <v>10.23388746745421</v>
       </c>
       <c r="D17" t="n">
-        <v>1.746906024261254e-08</v>
+        <v>4.563287452603383e-15</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>1.275232018263966</v>
+        <v>2.026611706199912</v>
       </c>
       <c r="G17" t="n">
-        <v>4.21307055908926e-09</v>
+        <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>27.96142810457515</v>
+        <v>14.89074836601307</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1137,19 +1137,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-6.763730661366035</v>
+        <v>6.386501259549263</v>
       </c>
       <c r="D18" t="n">
-        <v>2.208374041050213e-09</v>
+        <v>8.731490931845803e-09</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.339418259141515</v>
+        <v>1.264715706072028</v>
       </c>
       <c r="G18" t="n">
-        <v>9.192969718796462e-10</v>
+        <v>5.392566837514323e-09</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1157,7 +1157,7 @@
         </is>
       </c>
       <c r="I18" t="n">
-        <v>-44.52645751633983</v>
+        <v>8.106643790849681</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1177,19 +1177,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3.828175660678443</v>
+        <v>11.24725241602951</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0002979196225816907</v>
+        <v>2.619076675527189e-17</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7580917449007735</v>
+        <v>2.227287868994016</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0002251932603605233</v>
+        <v>0</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>4773.472810457517</v>
+        <v>2156.610954248366</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1217,19 +1217,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-1.301497809519549</v>
+        <v>0.2113112053814324</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1962547253164335</v>
+        <v>0.8331534575231507</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.2577349716570611</v>
+        <v>0.04184585416237294</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1960785593063358</v>
+        <v>0.8330744814936122</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>-0.2888888888888879</v>
+        <v>0.009803921568627416</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1257,19 +1257,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-3.31627100768838</v>
+        <v>-8.102905157475227</v>
       </c>
       <c r="D21" t="n">
-        <v>0.00127231487606637</v>
+        <v>1.052809736337506e-11</v>
       </c>
       <c r="E21" t="b">
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.656719518021486</v>
+        <v>-1.604614326529424</v>
       </c>
       <c r="G21" t="n">
-        <v>0.00127228924554057</v>
+        <v>1.338484878488089e-12</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         </is>
       </c>
       <c r="I21" t="n">
-        <v>-1.343137254901965</v>
+        <v>-5.491503267973858</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1297,19 +1297,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-2.416777016674931</v>
+        <v>-8.18735319465109</v>
       </c>
       <c r="D22" t="n">
-        <v>0.01748265609468042</v>
+        <v>7.006022144147106e-12</v>
       </c>
       <c r="E22" t="b">
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.4785931649966358</v>
+        <v>-1.6213375298332</v>
       </c>
       <c r="G22" t="n">
-        <v>0.01747108378128592</v>
+        <v>8.710809851208978e-13</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1317,7 +1317,7 @@
         </is>
       </c>
       <c r="I22" t="n">
-        <v>-1.05424836601307</v>
+        <v>-5.501307189542491</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1337,16 +1337,16 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>12.46269709248294</v>
+        <v>15.54621302664486</v>
       </c>
       <c r="D23" t="n">
-        <v>4.506240571014584e-22</v>
+        <v>2.999848793948732e-27</v>
       </c>
       <c r="E23" t="b">
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>2.467981780996905</v>
+        <v>3.078608926184875</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         </is>
       </c>
       <c r="I23" t="n">
-        <v>63.29803921568629</v>
+        <v>35.57712418300655</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1377,16 +1377,16 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>12.49532405110916</v>
+        <v>15.24506284340612</v>
       </c>
       <c r="D24" t="n">
-        <v>3.862411476509913e-22</v>
+        <v>7.308198702240957e-27</v>
       </c>
       <c r="E24" t="b">
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>2.474442881580615</v>
+        <v>3.018972303384713</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         </is>
       </c>
       <c r="I24" t="n">
-        <v>63.32662745098038</v>
+        <v>33.75378321401402</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1417,16 +1417,16 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>12.39132877336058</v>
+        <v>14.19555363273579</v>
       </c>
       <c r="D25" t="n">
-        <v>6.411560058732685e-22</v>
+        <v>2.46169570029114e-25</v>
       </c>
       <c r="E25" t="b">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>2.453848747831829</v>
+        <v>2.81113851012939</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1437,7 +1437,7 @@
         </is>
       </c>
       <c r="I25" t="n">
-        <v>57.89162091503273</v>
+        <v>29.6892573004363</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1457,19 +1457,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>8.325994077043978</v>
+        <v>15.05672525922138</v>
       </c>
       <c r="D26" t="n">
-        <v>1.152688763050008e-12</v>
+        <v>2.236002672217359e-26</v>
       </c>
       <c r="E26" t="b">
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>1.648792515644687</v>
+        <v>2.981675904138576</v>
       </c>
       <c r="G26" t="n">
-        <v>4.237721284994223e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>20.37502941176472</v>
+        <v>11.74116339869282</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -1497,19 +1497,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-5.835280452086951</v>
+        <v>0.6332230317237387</v>
       </c>
       <c r="D27" t="n">
-        <v>6.740753139142282e-08</v>
+        <v>0.5294738391942122</v>
       </c>
       <c r="E27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.155557720442743</v>
+        <v>0.1253968458035001</v>
       </c>
       <c r="G27" t="n">
-        <v>6.657008400079434e-08</v>
+        <v>0.5280335269912914</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         </is>
       </c>
       <c r="I27" t="n">
-        <v>-48.92784967320262</v>
+        <v>15179.96907843137</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1537,19 +1537,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5.161920006560516</v>
+        <v>15.86328305483594</v>
       </c>
       <c r="D28" t="n">
-        <v>2.509141372654725e-06</v>
+        <v>1.54526929467381e-25</v>
       </c>
       <c r="E28" t="b">
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>1.022212482307607</v>
+        <v>3.141398148057864</v>
       </c>
       <c r="G28" t="n">
-        <v>1.244852796844498e-06</v>
+        <v>0</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="I28" t="n">
-        <v>3859.329584967325</v>
+        <v>1650.833450980392</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>

--- a/[5] Tester Results/TEST_SEX_PARAMETRIC.xlsx
+++ b/[5] Tester Results/TEST_SEX_PARAMETRIC.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,19 +497,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.965198102174601</v>
+        <v>-8.109468710705281</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05466246786059524</v>
+        <v>9.309849748618311e-12</v>
       </c>
       <c r="E2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.389167214466121</v>
+        <v>-1.60591410375021</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05216543166850363</v>
+        <v>1.29485311362032e-12</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.09346405228758181</v>
+        <v>-5.28300653594771</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -533,23 +533,23 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-8.109468710705281</v>
+        <v>16.09431969546866</v>
       </c>
       <c r="D3" t="n">
-        <v>9.309849748618311e-12</v>
+        <v>3.524874757916437e-24</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.60591410375021</v>
+        <v>3.187150220469878</v>
       </c>
       <c r="G3" t="n">
-        <v>1.29485311362032e-12</v>
+        <v>0</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>-5.28300653594771</v>
+        <v>28.69379084967321</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -573,23 +573,23 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-8.28610145599726</v>
+        <v>15.97755748763471</v>
       </c>
       <c r="D4" t="n">
-        <v>4.210151482702333e-12</v>
+        <v>3.854158428953594e-24</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.640892599502226</v>
+        <v>3.164027857830015</v>
       </c>
       <c r="G4" t="n">
-        <v>5.228040222959862e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>-5.376470588235293</v>
+        <v>27.27579681348978</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -613,20 +613,20 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>16.09431969546866</v>
+        <v>15.2037165265115</v>
       </c>
       <c r="D5" t="n">
-        <v>3.524874757916437e-24</v>
+        <v>2.830348522492848e-23</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>3.187150220469878</v>
+        <v>3.010784512567843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>28.69379084967321</v>
+        <v>25.03027655123982</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -653,20 +653,20 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15.97755748763471</v>
+        <v>16.55225176932407</v>
       </c>
       <c r="D6" t="n">
-        <v>3.854158428953594e-24</v>
+        <v>5.43496484190397e-25</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>3.164027857830015</v>
+        <v>3.277834284025508</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>27.27579681348978</v>
+        <v>10.00032679738562</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -693,23 +693,23 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>15.2037165265115</v>
+        <v>7.64260839306666</v>
       </c>
       <c r="D7" t="n">
-        <v>2.830348522492848e-23</v>
+        <v>1.530186022331522e-10</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>3.010784512567843</v>
+        <v>1.513461984465573</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1.31999966512808e-11</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>25.03027655123982</v>
+        <v>14.234954248366</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -733,20 +733,20 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>16.55225176932407</v>
+        <v>15.90807182397458</v>
       </c>
       <c r="D8" t="n">
-        <v>5.43496484190397e-25</v>
+        <v>1.294060728858688e-22</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>3.277834284025508</v>
+        <v>3.150267646000978</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -757,7 +757,7 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>10.00032679738562</v>
+        <v>1564.353137254902</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -768,28 +768,28 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>7.64260839306666</v>
+        <v>-8.842640276173753</v>
       </c>
       <c r="D9" t="n">
-        <v>1.530186022331522e-10</v>
+        <v>3.621026512150495e-14</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>1.513461984465573</v>
+        <v>-1.751103708576005</v>
       </c>
       <c r="G9" t="n">
-        <v>1.31999966512808e-11</v>
+        <v>7.771561172376096e-15</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -797,7 +797,7 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>14.234954248366</v>
+        <v>-5.951633986928098</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -808,25 +808,25 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>15.90807182397458</v>
+        <v>11.14206713475105</v>
       </c>
       <c r="D10" t="n">
-        <v>1.294060728858688e-22</v>
+        <v>1.668015789715233e-16</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>3.150267646000978</v>
+        <v>2.206458079430981</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>1564.353137254902</v>
+        <v>46.30980392156863</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -853,23 +853,23 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-0.3812464258315104</v>
+        <v>10.90069335281275</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7039786637527163</v>
+        <v>3.496987943302613e-16</v>
       </c>
       <c r="E11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.0754980423611418</v>
+        <v>2.158658948005941</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7038292089242721</v>
+        <v>0</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>-0.007843137254901933</v>
+        <v>43.97995259121718</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -893,23 +893,23 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-8.842640276173753</v>
+        <v>10.78519220579126</v>
       </c>
       <c r="D12" t="n">
-        <v>3.621026512150495e-14</v>
+        <v>2.911300041376755e-16</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.751103708576005</v>
+        <v>2.13578631261908</v>
       </c>
       <c r="G12" t="n">
-        <v>7.771561172376096e-15</v>
+        <v>0</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>-5.951633986928098</v>
+        <v>40.15002930096622</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -933,23 +933,23 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-8.819895966394006</v>
+        <v>10.23388746745421</v>
       </c>
       <c r="D13" t="n">
-        <v>4.02293194107336e-14</v>
+        <v>4.563287452603383e-15</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.746599664086981</v>
+        <v>2.026611706199912</v>
       </c>
       <c r="G13" t="n">
-        <v>1.176836406102666e-14</v>
+        <v>0</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>-5.943790849673203</v>
+        <v>14.89074836601307</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -973,23 +973,23 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>11.14206713475105</v>
+        <v>6.386501259549263</v>
       </c>
       <c r="D14" t="n">
-        <v>1.668015789715233e-16</v>
+        <v>8.731490931845803e-09</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>2.206458079430981</v>
+        <v>1.264715706072028</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.392566837514323e-09</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>46.30980392156863</v>
+        <v>8.106643790849681</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1013,20 +1013,20 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>10.90069335281275</v>
+        <v>11.24725241602951</v>
       </c>
       <c r="D15" t="n">
-        <v>3.496987943302613e-16</v>
+        <v>2.619076675527189e-17</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>2.158658948005941</v>
+        <v>2.227287868994016</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1037,7 +1037,7 @@
         </is>
       </c>
       <c r="I15" t="n">
-        <v>43.97995259121718</v>
+        <v>2156.610954248366</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1048,28 +1048,28 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>10.78519220579126</v>
+        <v>-8.102905157475227</v>
       </c>
       <c r="D16" t="n">
-        <v>2.911300041376755e-16</v>
+        <v>1.052809736337506e-11</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>2.13578631261908</v>
+        <v>-1.604614326529424</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1.338484878488089e-12</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="I16" t="n">
-        <v>40.15002930096622</v>
+        <v>-5.491503267973858</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1088,25 +1088,25 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>10.23388746745421</v>
+        <v>15.54621302664486</v>
       </c>
       <c r="D17" t="n">
-        <v>4.563287452603383e-15</v>
+        <v>2.999848793948732e-27</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>2.026611706199912</v>
+        <v>3.078608926184875</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>14.89074836601307</v>
+        <v>35.57712418300655</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1128,28 +1128,28 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>6.386501259549263</v>
+        <v>15.24506284340612</v>
       </c>
       <c r="D18" t="n">
-        <v>8.731490931845803e-09</v>
+        <v>7.308198702240957e-27</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>1.264715706072028</v>
+        <v>3.018972303384713</v>
       </c>
       <c r="G18" t="n">
-        <v>5.392566837514323e-09</v>
+        <v>0</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1157,7 +1157,7 @@
         </is>
       </c>
       <c r="I18" t="n">
-        <v>8.106643790849681</v>
+        <v>33.75378321401402</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1168,25 +1168,25 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>11.24725241602951</v>
+        <v>14.19555363273579</v>
       </c>
       <c r="D19" t="n">
-        <v>2.619076675527189e-17</v>
+        <v>2.46169570029114e-25</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>2.227287868994016</v>
+        <v>2.81113851012939</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>2156.610954248366</v>
+        <v>29.6892573004363</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1213,23 +1213,23 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.2113112053814324</v>
+        <v>15.05672525922138</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8331534575231507</v>
+        <v>2.236002672217359e-26</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.04184585416237294</v>
+        <v>2.981675904138576</v>
       </c>
       <c r="G20" t="n">
-        <v>0.8330744814936122</v>
+        <v>0</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>0.009803921568627416</v>
+        <v>11.74116339869282</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1253,23 +1253,23 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-8.102905157475227</v>
+        <v>0.6332230317237387</v>
       </c>
       <c r="D21" t="n">
-        <v>1.052809736337506e-11</v>
+        <v>0.5294738391942122</v>
       </c>
       <c r="E21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.604614326529424</v>
+        <v>0.1253968458035001</v>
       </c>
       <c r="G21" t="n">
-        <v>1.338484878488089e-12</v>
+        <v>0.5280335269912914</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         </is>
       </c>
       <c r="I21" t="n">
-        <v>-5.491503267973858</v>
+        <v>15179.96907843137</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1293,23 +1293,23 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-8.18735319465109</v>
+        <v>15.86328305483594</v>
       </c>
       <c r="D22" t="n">
-        <v>7.006022144147106e-12</v>
+        <v>1.54526929467381e-25</v>
       </c>
       <c r="E22" t="b">
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.6213375298332</v>
+        <v>3.141398148057864</v>
       </c>
       <c r="G22" t="n">
-        <v>8.710809851208978e-13</v>
+        <v>0</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1317,249 +1317,9 @@
         </is>
       </c>
       <c r="I22" t="n">
-        <v>-5.501307189542491</v>
+        <v>1650.833450980392</v>
       </c>
       <c r="J22" t="inlineStr">
-        <is>
-          <t>ttest_ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>peakValue</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>15.54621302664486</v>
-      </c>
-      <c r="D23" t="n">
-        <v>2.999848793948732e-27</v>
-      </c>
-      <c r="E23" t="b">
-        <v>1</v>
-      </c>
-      <c r="F23" t="n">
-        <v>3.078608926184875</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Tukey HSD</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
-        <v>35.57712418300655</v>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>ttest_ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>PTPA</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>15.24506284340612</v>
-      </c>
-      <c r="D24" t="n">
-        <v>7.308198702240957e-27</v>
-      </c>
-      <c r="E24" t="b">
-        <v>1</v>
-      </c>
-      <c r="F24" t="n">
-        <v>3.018972303384713</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Tukey HSD</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
-        <v>33.75378321401402</v>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>ttest_ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>PTTA</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>14.19555363273579</v>
-      </c>
-      <c r="D25" t="n">
-        <v>2.46169570029114e-25</v>
-      </c>
-      <c r="E25" t="b">
-        <v>1</v>
-      </c>
-      <c r="F25" t="n">
-        <v>2.81113851012939</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Tukey HSD</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
-        <v>29.6892573004363</v>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>ttest_ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>RMS</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>15.05672525922138</v>
-      </c>
-      <c r="D26" t="n">
-        <v>2.236002672217359e-26</v>
-      </c>
-      <c r="E26" t="b">
-        <v>1</v>
-      </c>
-      <c r="F26" t="n">
-        <v>2.981675904138576</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Tukey HSD</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
-        <v>11.74116339869282</v>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>ttest_ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>tau</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>0.6332230317237387</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.5294738391942122</v>
-      </c>
-      <c r="E27" t="b">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.1253968458035001</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.5280335269912914</v>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Tukey HSD</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
-        <v>15179.96907843137</v>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>ttest_ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>AUC</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>15.86328305483594</v>
-      </c>
-      <c r="D28" t="n">
-        <v>1.54526929467381e-25</v>
-      </c>
-      <c r="E28" t="b">
-        <v>1</v>
-      </c>
-      <c r="F28" t="n">
-        <v>3.141398148057864</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Tukey HSD</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
-        <v>1650.833450980392</v>
-      </c>
-      <c r="J28" t="inlineStr">
         <is>
           <t>ttest_ind</t>
         </is>
